--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2855.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2855.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.182293154290922</v>
+        <v>1.346130013465881</v>
       </c>
       <c r="B1">
-        <v>2.228793919023961</v>
+        <v>1.478269577026367</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.953767538070679</v>
       </c>
       <c r="D1">
-        <v>2.343083944700234</v>
+        <v>3.208298444747925</v>
       </c>
       <c r="E1">
-        <v>1.219407882590456</v>
+        <v>1.079349517822266</v>
       </c>
     </row>
   </sheetData>
